--- a/Data/LoginData.xlsx
+++ b/Data/LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fahmi/Documents/Project/Katalon/Mobile/M2U Dev/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fahmi/Documents/Project/Katalon/Mobile/Mobile/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA435FA1-6375-A64E-8BBB-E883B1A4BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E3F2E5-BE5E-8041-9CF0-5FD115087F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{62C38D8D-6B41-D543-B91A-82FB83690AC7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>ntbfau1</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,33 +449,27 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
